--- a/sklad/src/assets/database.xlsx
+++ b/sklad/src/assets/database.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26105"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C43FA7-F20B-464A-9466-8B0D83496B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F707FD9-1A1E-4FCD-A7A0-CB3C41B1EA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="8" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profil" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Профильная труба 15 x 15 x 1.5 - 6.0 м</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Профильная труба 100 x 100 x 4.0 м</t>
+  </si>
+  <si>
+    <t>Профильная труба 80 x 80 x 2.0 м</t>
   </si>
   <si>
     <t>Металлический лист 0.8 x 1.25 x 2.5 X/K</t>
@@ -692,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -709,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -725,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -741,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -773,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -781,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>4.8</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -797,7 +800,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -805,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="5">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -837,7 +840,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5">
-        <v>4.99</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -845,7 +848,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="5">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -853,7 +856,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -877,7 +880,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="5">
-        <v>4.95</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -885,7 +888,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5">
-        <v>5.99</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -901,7 +904,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="5">
-        <v>7.3</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -917,7 +920,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="5">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -925,7 +928,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="5">
-        <v>8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -941,7 +944,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="5">
-        <v>8.1999999999999993</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -949,7 +952,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="5">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -965,7 +968,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="5">
-        <v>10.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -973,7 +976,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="5">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -989,7 +992,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="5">
-        <v>9.6</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -997,7 +1000,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="5">
-        <v>13.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1013,7 +1016,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="5">
-        <v>17.5</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1021,7 +1024,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="5">
-        <v>18.05</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1037,7 +1040,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="5">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1045,7 +1048,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="5">
-        <v>25.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1053,7 +1056,15 @@
         <v>44</v>
       </c>
       <c r="B44" s="5">
-        <v>33</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="5">
+        <v>15.8</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1078,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1078,15 +1089,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5">
         <v>77.2</v>
@@ -1094,7 +1105,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5">
         <v>110</v>
@@ -1102,7 +1113,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5">
         <v>100</v>
@@ -1110,15 +1121,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5">
         <v>204</v>
@@ -1145,7 +1156,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5">
         <v>3.68</v>
@@ -1153,7 +1164,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5">
         <v>4.8</v>
@@ -1161,7 +1172,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5">
         <v>6.81</v>
@@ -1169,7 +1180,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5">
         <v>8.89</v>
@@ -1177,7 +1188,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5">
         <v>10.19</v>
@@ -1185,7 +1196,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5">
         <v>13.79</v>
@@ -1212,7 +1223,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3">
         <v>2.2999999999999998</v>
@@ -1220,7 +1231,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3">
         <v>3.43</v>
@@ -1228,7 +1239,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3">
         <v>4.05</v>
@@ -1236,7 +1247,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3">
         <v>6.2</v>
@@ -1263,7 +1274,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3">
         <v>0.7</v>
@@ -1271,7 +1282,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3">
         <v>1.3</v>
@@ -1279,7 +1290,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3">
         <v>1.75</v>
@@ -1287,7 +1298,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3">
         <v>2.3199999999999998</v>
@@ -1295,7 +1306,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3">
         <v>3.3</v>
@@ -1303,7 +1314,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3">
         <v>4.55</v>
@@ -1311,7 +1322,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3">
         <v>7.06</v>
@@ -1338,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2">
         <v>4.7</v>
@@ -1346,7 +1357,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2">
         <v>7.1</v>
@@ -1354,7 +1365,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2">
         <v>7.9</v>
@@ -1362,7 +1373,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2">
         <v>10.199999999999999</v>
@@ -1370,7 +1381,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2">
         <v>15</v>
@@ -1378,7 +1389,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2">
         <v>19.170000000000002</v>
@@ -1386,7 +1397,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2">
         <v>19.18</v>
@@ -1394,7 +1405,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2">
         <v>33.04</v>
@@ -1411,7 +1422,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1422,15 +1433,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="5">
         <v>1.1000000000000001</v>
@@ -1438,15 +1449,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3">
         <v>2.1</v>
@@ -1454,7 +1465,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="5">
         <v>3.6</v>
@@ -1462,7 +1473,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" s="5">
         <v>4.59</v>
@@ -1470,7 +1481,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5">
         <v>11</v>
@@ -1478,7 +1489,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" s="5">
         <v>9</v>
@@ -1505,7 +1516,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3">
         <v>0.2</v>
@@ -1513,7 +1524,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3">
         <v>0.2</v>
@@ -1521,7 +1532,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3">
         <v>0.25</v>
@@ -1529,7 +1540,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3">
         <v>0.3</v>
@@ -1537,7 +1548,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3">
         <v>0.3</v>
@@ -1545,7 +1556,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3">
         <v>0.3</v>
@@ -1553,7 +1564,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3">
         <v>0.35</v>
@@ -1561,7 +1572,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3">
         <v>0.4</v>
@@ -1569,7 +1580,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3">
         <v>0.6</v>
@@ -1577,7 +1588,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="3">
         <v>0.6</v>
@@ -1585,7 +1596,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" s="3">
         <v>0.6</v>
@@ -1593,7 +1604,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3">
         <v>0.7</v>
@@ -1601,7 +1612,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="3">
         <v>0.7</v>
@@ -1609,7 +1620,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" s="3">
         <v>1.6</v>
@@ -1617,7 +1628,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" s="3">
         <v>1.7</v>
@@ -1625,7 +1636,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -1652,7 +1663,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="3">
         <v>2.95</v>
@@ -1660,7 +1671,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3">
         <v>4.5</v>
@@ -1668,7 +1679,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3">
         <v>7.1</v>
@@ -1676,7 +1687,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -1684,7 +1695,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" s="3">
         <v>2.35</v>

--- a/sklad/src/assets/database.xlsx
+++ b/sklad/src/assets/database.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26105"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F707FD9-1A1E-4FCD-A7A0-CB3C41B1EA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="8" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="profil" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="zaglushki" sheetId="8" r:id="rId8"/>
     <sheet name="polosa" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -362,8 +361,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,52 +693,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,7 +746,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -755,7 +754,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -763,7 +762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -771,55 +770,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="5">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -827,7 +826,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -835,15 +834,15 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="5">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -851,15 +850,15 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -867,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -875,23 +874,23 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="5">
-        <v>5.65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -899,63 +898,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="5">
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="5">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="5">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="5">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="5">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="5">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -963,23 +962,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="5">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="5">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -987,23 +986,23 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="5">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1011,23 +1010,23 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="5">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="5">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1043,15 +1042,15 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1074,28 +1073,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1103,15 +1102,15 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -1119,15 +1118,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -1141,52 +1140,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="5">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="5">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="5">
-        <v>6.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="5">
-        <v>8.89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1194,12 +1193,12 @@
         <v>10.19</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="5">
-        <v>13.79</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1208,20 +1207,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1229,23 +1228,23 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="3">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="3">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -1259,20 +1258,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1280,39 +1279,39 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="3">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="3">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="3">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -1334,36 +1333,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="2">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="2">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -1371,15 +1370,15 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="2">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>19.170000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>19.18</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
@@ -1418,52 +1417,52 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="3">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>82</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
@@ -1501,20 +1500,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1530,7 +1529,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -1546,7 +1545,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
@@ -1562,7 +1561,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -1578,7 +1577,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -1634,7 +1633,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
@@ -1648,44 +1647,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B1" s="3">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="3">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
